--- a/Data/EC/NIT-9001231595.xlsx
+++ b/Data/EC/NIT-9001231595.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85972DFD-2C47-4F88-AC5D-8D70E83181D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F16421CD-83A0-4191-9178-A14BB9427361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5C23DAC6-8B16-44A6-81E6-AEB1E555E480}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C56FD04E-F935-4DA4-9C27-4B059E6D789E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,88 +71,88 @@
     <t>EMILIA ISABEL VILLALOBOS MARQUEZ</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>32939175</t>
+  </si>
+  <si>
+    <t>GLENDA PATRICIA VARGAS TORRES</t>
+  </si>
+  <si>
+    <t>1102816096</t>
+  </si>
+  <si>
+    <t>KELLY JOHANA DELGADO SALGADO</t>
+  </si>
+  <si>
+    <t>1143337712</t>
+  </si>
+  <si>
+    <t>DIEGO ARMANDO ORTEGA LOPEZ</t>
+  </si>
+  <si>
+    <t>45528542</t>
+  </si>
+  <si>
+    <t>SILVANA ROCIO SALDARRIAGA MARTINEZ</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
     <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>32939175</t>
-  </si>
-  <si>
-    <t>GLENDA PATRICIA VARGAS TORRES</t>
-  </si>
-  <si>
-    <t>1102816096</t>
-  </si>
-  <si>
-    <t>KELLY JOHANA DELGADO SALGADO</t>
-  </si>
-  <si>
-    <t>1143337712</t>
-  </si>
-  <si>
-    <t>DIEGO ARMANDO ORTEGA LOPEZ</t>
-  </si>
-  <si>
-    <t>45528542</t>
-  </si>
-  <si>
-    <t>SILVANA ROCIO SALDARRIAGA MARTINEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -251,7 +251,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -264,9 +266,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -466,23 +466,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,10 +510,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,7 +566,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{307A5E73-D3E0-CB7E-51B2-F7C69B2EAAE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41690BF-A1C7-A614-6EC1-880D97EC0D56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -917,7 +917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7524E209-C6F6-449A-93E0-0ED4EE00EE74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976F8A28-480A-436D-AE87-7AE09BC132B8}">
   <dimension ref="B2:J121"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1109,19 +1109,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>24640</v>
+        <v>306540</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>7663500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1132,19 +1132,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>24640</v>
+        <v>72000</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>1800000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1155,19 +1155,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>24640</v>
+        <v>72000</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>1800000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1178,19 +1178,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>24640</v>
+        <v>66800</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>1670000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1207,7 +1207,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
         <v>24640</v>
@@ -1224,19 +1224,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
-        <v>24640</v>
+        <v>306540</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>7663500</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1247,19 +1247,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>24640</v>
+        <v>72000</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>1800000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1270,19 +1270,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
-        <v>24640</v>
+        <v>72000</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>1800000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1293,19 +1293,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>24640</v>
+        <v>66800</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>1670000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1339,19 +1339,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" s="18">
-        <v>24640</v>
+        <v>306540</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>7663500</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1362,19 +1362,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F28" s="18">
-        <v>24640</v>
+        <v>72000</v>
       </c>
       <c r="G28" s="18">
-        <v>781242</v>
+        <v>1800000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1385,19 +1385,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F29" s="18">
-        <v>24640</v>
+        <v>72000</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>1800000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1408,19 +1408,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
-        <v>24640</v>
+        <v>66800</v>
       </c>
       <c r="G30" s="18">
-        <v>781242</v>
+        <v>1670000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1437,7 +1437,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
         <v>24640</v>
@@ -1454,19 +1454,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
-        <v>24640</v>
+        <v>306540</v>
       </c>
       <c r="G32" s="18">
-        <v>781242</v>
+        <v>7663500</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1477,19 +1477,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F33" s="18">
-        <v>24640</v>
+        <v>72000</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>1800000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1500,19 +1500,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
-        <v>24640</v>
+        <v>72000</v>
       </c>
       <c r="G34" s="18">
-        <v>781242</v>
+        <v>1800000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1523,19 +1523,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
-        <v>24640</v>
+        <v>66800</v>
       </c>
       <c r="G35" s="18">
-        <v>781242</v>
+        <v>1670000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1546,19 +1546,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
-        <v>306540</v>
+        <v>24640</v>
       </c>
       <c r="G36" s="18">
-        <v>7663500</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1569,13 +1569,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
         <v>306540</v>
@@ -1592,19 +1592,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F38" s="18">
-        <v>306540</v>
+        <v>72000</v>
       </c>
       <c r="G38" s="18">
-        <v>7663500</v>
+        <v>1800000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1615,19 +1615,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F39" s="18">
-        <v>306540</v>
+        <v>72000</v>
       </c>
       <c r="G39" s="18">
-        <v>7663500</v>
+        <v>1800000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1638,19 +1638,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F40" s="18">
-        <v>306540</v>
+        <v>66800</v>
       </c>
       <c r="G40" s="18">
-        <v>7663500</v>
+        <v>1670000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1661,19 +1661,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F41" s="18">
-        <v>306540</v>
+        <v>24640</v>
       </c>
       <c r="G41" s="18">
-        <v>7663500</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1684,13 +1684,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F42" s="18">
         <v>306540</v>
@@ -1707,19 +1707,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F43" s="18">
-        <v>306540</v>
+        <v>72000</v>
       </c>
       <c r="G43" s="18">
-        <v>7663500</v>
+        <v>1800000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1730,19 +1730,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F44" s="18">
-        <v>306540</v>
+        <v>72000</v>
       </c>
       <c r="G44" s="18">
-        <v>7663500</v>
+        <v>1800000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1753,19 +1753,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F45" s="18">
-        <v>306540</v>
+        <v>66800</v>
       </c>
       <c r="G45" s="18">
-        <v>7663500</v>
+        <v>1670000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1776,19 +1776,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F46" s="18">
-        <v>306540</v>
+        <v>24640</v>
       </c>
       <c r="G46" s="18">
-        <v>7663500</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1799,13 +1799,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F47" s="18">
         <v>306540</v>
@@ -1822,19 +1822,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F48" s="18">
-        <v>306540</v>
+        <v>72000</v>
       </c>
       <c r="G48" s="18">
-        <v>7663500</v>
+        <v>1800000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1845,19 +1845,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F49" s="18">
-        <v>306540</v>
+        <v>72000</v>
       </c>
       <c r="G49" s="18">
-        <v>7663500</v>
+        <v>1800000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1868,19 +1868,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F50" s="18">
-        <v>306540</v>
+        <v>66800</v>
       </c>
       <c r="G50" s="18">
-        <v>7663500</v>
+        <v>1670000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1891,19 +1891,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F51" s="18">
-        <v>306540</v>
+        <v>24640</v>
       </c>
       <c r="G51" s="18">
-        <v>7663500</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1914,13 +1914,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F52" s="18">
         <v>306540</v>
@@ -1937,19 +1937,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F53" s="18">
-        <v>306540</v>
+        <v>72000</v>
       </c>
       <c r="G53" s="18">
-        <v>7663500</v>
+        <v>1800000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -1960,19 +1960,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F54" s="18">
-        <v>306540</v>
+        <v>72000</v>
       </c>
       <c r="G54" s="18">
-        <v>7663500</v>
+        <v>1800000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -1983,19 +1983,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F55" s="18">
-        <v>306540</v>
+        <v>66800</v>
       </c>
       <c r="G55" s="18">
-        <v>7663500</v>
+        <v>1670000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2006,19 +2006,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F56" s="18">
-        <v>72000</v>
+        <v>24640</v>
       </c>
       <c r="G56" s="18">
-        <v>1800000</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2029,19 +2029,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F57" s="18">
-        <v>72000</v>
+        <v>306540</v>
       </c>
       <c r="G57" s="18">
-        <v>1800000</v>
+        <v>7663500</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2052,13 +2052,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F58" s="18">
         <v>72000</v>
@@ -2075,13 +2075,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F59" s="18">
         <v>72000</v>
@@ -2098,19 +2098,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F60" s="18">
-        <v>72000</v>
+        <v>66800</v>
       </c>
       <c r="G60" s="18">
-        <v>1800000</v>
+        <v>1670000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2121,19 +2121,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F61" s="18">
-        <v>72000</v>
+        <v>24640</v>
       </c>
       <c r="G61" s="18">
-        <v>1800000</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2144,19 +2144,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F62" s="18">
-        <v>72000</v>
+        <v>306540</v>
       </c>
       <c r="G62" s="18">
-        <v>1800000</v>
+        <v>7663500</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2167,13 +2167,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F63" s="18">
         <v>72000</v>
@@ -2190,13 +2190,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F64" s="18">
         <v>72000</v>
@@ -2213,19 +2213,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F65" s="18">
-        <v>72000</v>
+        <v>66800</v>
       </c>
       <c r="G65" s="18">
-        <v>1800000</v>
+        <v>1670000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2236,19 +2236,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F66" s="18">
-        <v>72000</v>
+        <v>24640</v>
       </c>
       <c r="G66" s="18">
-        <v>1800000</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2259,19 +2259,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F67" s="18">
-        <v>72000</v>
+        <v>306540</v>
       </c>
       <c r="G67" s="18">
-        <v>1800000</v>
+        <v>7663500</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2282,13 +2282,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F68" s="18">
         <v>72000</v>
@@ -2305,13 +2305,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F69" s="18">
         <v>72000</v>
@@ -2328,19 +2328,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F70" s="18">
-        <v>72000</v>
+        <v>66800</v>
       </c>
       <c r="G70" s="18">
-        <v>1800000</v>
+        <v>1670000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2351,19 +2351,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F71" s="18">
-        <v>72000</v>
+        <v>24640</v>
       </c>
       <c r="G71" s="18">
-        <v>1800000</v>
+        <v>781242</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2374,19 +2374,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F72" s="18">
-        <v>72000</v>
+        <v>306540</v>
       </c>
       <c r="G72" s="18">
-        <v>1800000</v>
+        <v>7663500</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2397,13 +2397,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F73" s="18">
         <v>72000</v>
@@ -2420,13 +2420,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F74" s="18">
         <v>72000</v>
@@ -2443,19 +2443,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F75" s="18">
-        <v>72000</v>
+        <v>66800</v>
       </c>
       <c r="G75" s="18">
-        <v>1800000</v>
+        <v>1670000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2466,19 +2466,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F76" s="18">
-        <v>72000</v>
+        <v>24640</v>
       </c>
       <c r="G76" s="18">
-        <v>1800000</v>
+        <v>781242</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2489,19 +2489,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F77" s="18">
-        <v>72000</v>
+        <v>306540</v>
       </c>
       <c r="G77" s="18">
-        <v>1800000</v>
+        <v>7663500</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2512,13 +2512,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F78" s="18">
         <v>72000</v>
@@ -2535,13 +2535,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F79" s="18">
         <v>72000</v>
@@ -2558,19 +2558,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F80" s="18">
-        <v>72000</v>
+        <v>66800</v>
       </c>
       <c r="G80" s="18">
-        <v>1800000</v>
+        <v>1670000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2581,19 +2581,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F81" s="18">
-        <v>72000</v>
+        <v>24640</v>
       </c>
       <c r="G81" s="18">
-        <v>1800000</v>
+        <v>781242</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2604,19 +2604,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F82" s="18">
-        <v>72000</v>
+        <v>306540</v>
       </c>
       <c r="G82" s="18">
-        <v>1800000</v>
+        <v>7663500</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2627,13 +2627,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F83" s="18">
         <v>72000</v>
@@ -2650,13 +2650,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F84" s="18">
         <v>72000</v>
@@ -2673,19 +2673,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F85" s="18">
-        <v>72000</v>
+        <v>66800</v>
       </c>
       <c r="G85" s="18">
-        <v>1800000</v>
+        <v>1670000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2696,19 +2696,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F86" s="18">
-        <v>72000</v>
+        <v>24640</v>
       </c>
       <c r="G86" s="18">
-        <v>1800000</v>
+        <v>781242</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2719,19 +2719,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F87" s="18">
-        <v>72000</v>
+        <v>306540</v>
       </c>
       <c r="G87" s="18">
-        <v>1800000</v>
+        <v>7663500</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2742,13 +2742,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F88" s="18">
         <v>72000</v>
@@ -2765,13 +2765,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F89" s="18">
         <v>72000</v>
@@ -2788,19 +2788,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F90" s="18">
-        <v>72000</v>
+        <v>66800</v>
       </c>
       <c r="G90" s="18">
-        <v>1800000</v>
+        <v>1670000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2811,19 +2811,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F91" s="18">
-        <v>72000</v>
+        <v>24640</v>
       </c>
       <c r="G91" s="18">
-        <v>1800000</v>
+        <v>781242</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2834,19 +2834,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F92" s="18">
-        <v>72000</v>
+        <v>306540</v>
       </c>
       <c r="G92" s="18">
-        <v>1800000</v>
+        <v>7663500</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2857,13 +2857,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F93" s="18">
         <v>72000</v>
@@ -2880,13 +2880,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F94" s="18">
         <v>72000</v>
@@ -2903,19 +2903,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F95" s="18">
-        <v>72000</v>
+        <v>66800</v>
       </c>
       <c r="G95" s="18">
-        <v>1800000</v>
+        <v>1670000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -2926,19 +2926,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F96" s="18">
-        <v>66800</v>
+        <v>24640</v>
       </c>
       <c r="G96" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -2949,19 +2949,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F97" s="18">
-        <v>66800</v>
+        <v>306540</v>
       </c>
       <c r="G97" s="18">
-        <v>0</v>
+        <v>7663500</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -2972,19 +2972,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F98" s="18">
-        <v>66800</v>
+        <v>72000</v>
       </c>
       <c r="G98" s="18">
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -2995,19 +2995,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F99" s="18">
-        <v>66800</v>
+        <v>72000</v>
       </c>
       <c r="G99" s="18">
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3018,19 +3018,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F100" s="18">
         <v>66800</v>
       </c>
       <c r="G100" s="18">
-        <v>0</v>
+        <v>1670000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3041,19 +3041,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F101" s="18">
-        <v>66800</v>
+        <v>24640</v>
       </c>
       <c r="G101" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3064,19 +3064,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F102" s="18">
-        <v>66800</v>
+        <v>306540</v>
       </c>
       <c r="G102" s="18">
-        <v>0</v>
+        <v>7663500</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3087,19 +3087,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F103" s="18">
-        <v>66800</v>
+        <v>72000</v>
       </c>
       <c r="G103" s="18">
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3110,19 +3110,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F104" s="18">
-        <v>66800</v>
+        <v>72000</v>
       </c>
       <c r="G104" s="18">
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3133,19 +3133,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F105" s="18">
         <v>66800</v>
       </c>
       <c r="G105" s="18">
-        <v>0</v>
+        <v>1670000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3156,19 +3156,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D106" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E106" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F106" s="18">
-        <v>66800</v>
+        <v>24640</v>
       </c>
       <c r="G106" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3179,19 +3179,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D107" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F107" s="18">
-        <v>66800</v>
+        <v>306540</v>
       </c>
       <c r="G107" s="18">
-        <v>0</v>
+        <v>7663500</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3202,19 +3202,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D108" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F108" s="18">
-        <v>66800</v>
+        <v>72000</v>
       </c>
       <c r="G108" s="18">
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3225,19 +3225,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D109" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F109" s="18">
-        <v>66800</v>
+        <v>72000</v>
       </c>
       <c r="G109" s="18">
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3248,19 +3248,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F110" s="18">
         <v>66800</v>
       </c>
       <c r="G110" s="18">
-        <v>0</v>
+        <v>1670000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3271,19 +3271,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D111" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E111" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F111" s="18">
-        <v>66800</v>
+        <v>24640</v>
       </c>
       <c r="G111" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3294,19 +3294,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D112" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E112" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F112" s="18">
-        <v>66800</v>
+        <v>306540</v>
       </c>
       <c r="G112" s="18">
-        <v>0</v>
+        <v>7663500</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3317,19 +3317,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D113" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E113" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F113" s="18">
-        <v>66800</v>
+        <v>72000</v>
       </c>
       <c r="G113" s="18">
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3340,19 +3340,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D114" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E114" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F114" s="18">
-        <v>66800</v>
+        <v>72000</v>
       </c>
       <c r="G114" s="18">
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3363,19 +3363,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D115" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115" s="22" t="s">
         <v>38</v>
-      </c>
-      <c r="E115" s="22" t="s">
-        <v>30</v>
       </c>
       <c r="F115" s="24">
         <v>66800</v>
       </c>
       <c r="G115" s="24">
-        <v>0</v>
+        <v>1670000</v>
       </c>
       <c r="H115" s="25"/>
       <c r="I115" s="25"/>
